--- a/storage/app/public/import_templates/orders_import_template.xlsx
+++ b/storage/app/public/import_templates/orders_import_template.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">pnr</t>
+    <t xml:space="preserve">ssn</t>
   </si>
 </sst>
 </file>
@@ -37,6 +37,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
